--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProject\WebServiceTest\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5889D9A8-6DA1-45BB-BC36-958969B99A51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C865D-9C78-47E9-BFAD-4AE0BEB40976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>发送短信验证码-完整</t>
   </si>
   <si>
-    <t>{"client_ip": "129.45.6.7", "tmpl_id": "1", "mobile": "15900743991"}</t>
-  </si>
-  <si>
     <t>check_sql</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -206,6 +203,10 @@
   <si>
     <t>{"verify_code": "${verify_code}", "user_id": "yoyo", "channel_id": "1", "pwd": "", "mobile": "${register_phone}",
      "ip": "129.45.6.13"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"client_ip": "129.45.6.7", "tmpl_id": "1", "mobile": "${register_phone}"}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -895,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED0E634-EF03-4F6B-94EC-4E9F94AB354F}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -905,7 +906,7 @@
     <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="77.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="72" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
@@ -939,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8">
         <v>0</v>
@@ -964,7 +965,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.25">
@@ -972,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -981,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -995,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -1004,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>24</v>
@@ -1018,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1027,7 +1028,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1041,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -1050,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>24</v>
@@ -1064,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -1073,7 +1074,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>24</v>
@@ -1087,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -1096,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>24</v>
@@ -1110,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -1119,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>24</v>

--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProject\WebServiceTest\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C865D-9C78-47E9-BFAD-4AE0BEB40976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="send_msg" sheetId="8" r:id="rId1"/>
     <sheet name="register" sheetId="9" r:id="rId2"/>
+    <sheet name="verifyUserAuth" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>case_id</t>
   </si>
@@ -208,13 +203,73 @@
   <si>
     <t>{"client_ip": "129.45.6.7", "tmpl_id": "1", "mobile": "${register_phone}"}</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyUserAuth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://120.24.235.105:9010/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "yoyo", "cre_id": "${cre_id}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-缺少uid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-真实姓名为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-身份证为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名认证-身份证错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "yoyo", "cre_id": "123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.3"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>SELECT * FROM `t_user_info` LIMIT 0, 1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_sql</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +345,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,9 +425,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,6 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,27 +742,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -721,7 +788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -743,7 +810,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -765,7 +832,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -787,7 +854,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -809,7 +876,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -831,7 +898,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -853,7 +920,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -878,14 +945,14 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3:D8" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{BD7B472F-E3CF-4466-92E5-3983A15226A5}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{03F9EFC3-3B9C-41A4-A1E8-F87FCEC1989B}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{8F519755-6406-48E6-BB1A-88941704B408}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{BD33DC68-658B-4796-8A75-4D18B89BF69F}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{9AE0AEDE-3AEF-43AF-B785-83BA3DC90084}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{6486C1CD-AD09-4B6A-ACA9-79A9FFD4C5D2}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -893,28 +960,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED0E634-EF03-4F6B-94EC-4E9F94AB354F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="12.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -939,11 +1006,11 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="12.95" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -953,7 +1020,7 @@
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -964,11 +1031,11 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -981,21 +1048,21 @@
       <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>20042003</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="40.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1004,21 +1071,21 @@
       <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
+      <c r="F4" s="4">
+        <v>19001</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1027,21 +1094,21 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
+      <c r="F5" s="4">
+        <v>19001</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1050,21 +1117,21 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
+      <c r="F6" s="4">
+        <v>19001</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="40.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1073,21 +1140,21 @@
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
+      <c r="F7" s="4">
+        <v>20042003</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="40.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1096,21 +1163,21 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>24</v>
+      <c r="F8" s="4">
+        <v>19001</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1119,11 +1186,11 @@
       <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
+      <c r="F9" s="4">
+        <v>19001</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1132,17 +1199,199 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{740A39D3-A6B3-405D-A405-7958B290ED8C}"/>
-    <hyperlink ref="D4:D9" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{88CD2DAF-D21E-4C7D-8833-2C0DC7194A3C}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{19E36ED7-0898-42C4-9FCA-EFD3ACF6DDD5}"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{67F24BAF-A1EC-4CAE-B6D2-08F19783811D}"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{6913E0AB-5885-4486-B08D-9AF6EA2E8520}"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{EB6F050A-6A14-4706-9EF6-D0C5F926A5C9}"/>
-    <hyperlink ref="D8" r:id="rId7" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{4DB15C49-57AE-48F9-89AF-B595124D6AD5}"/>
-    <hyperlink ref="D9" r:id="rId8" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{D264F9F2-426A-4DDB-B02B-AF9AF8FB1149}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{D3D08FF7-8F03-4C08-A347-32DC7B890AEB}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D4:D9" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D7" r:id="rId6" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D8" r:id="rId7" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.95" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmProject\WebServiceTest\datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0D15A9-F483-4C8E-B035-021A41D570A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="send_msg" sheetId="8" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>case_id</t>
   </si>
@@ -217,10 +223,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{"uid": "${user_id}", "true_name": "yoyo", "cre_id": "${cre_id}"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实名认证-成功</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -238,10 +240,6 @@
   </si>
   <si>
     <t>实名认证-身份证错误</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"uid": "${user_id}", "true_name": "yoyo", "cre_id": "123456"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -264,11 +262,30 @@
     <t>check_sql</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "全智贤", "cre_id": "${cre_id}"}</t>
+  </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "全智贤", "cre_id": "123456"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "", "cre_id": "${cre_id}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid": "", "true_name": "全智贤", "cre_id": "${cre_id}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid": "${user_id}", "true_name": "全智贤", "cre_id": ""}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -742,27 +759,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1">
+    <row r="1" spans="1:8" ht="13" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -945,14 +962,14 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D8" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="D7" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
@@ -960,28 +977,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="77.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="77.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.08984375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.95" customHeight="1">
+    <row r="1" spans="1:9" ht="13" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="12.95" customHeight="1">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="13" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1035,7 +1052,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="40.5">
+    <row r="3" spans="1:9" ht="42">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1058,7 +1075,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="40.5">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1081,7 +1098,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="40.5">
+    <row r="5" spans="1:9" ht="42">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1104,7 +1121,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="42">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1127,7 +1144,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="40.5">
+    <row r="7" spans="1:9" ht="42">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1150,7 +1167,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="40.5">
+    <row r="8" spans="1:9" ht="42">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1173,7 +1190,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="40.5">
+    <row r="9" spans="1:9" ht="42">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1199,15 +1216,15 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D4:D9" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D8" r:id="rId7" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D9" r:id="rId8" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D2" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4:D9" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
@@ -1215,28 +1232,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="74.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.08984375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.95" customHeight="1">
+    <row r="1" spans="1:9" ht="13" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1262,15 +1279,15 @@
         <v>5</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.5">
       <c r="A2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>47</v>
@@ -1279,23 +1296,23 @@
         <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6">
-        <v>0</v>
+        <v>19001</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>47</v>
@@ -1304,10 +1321,10 @@
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1315,10 +1332,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>47</v>
@@ -1327,10 +1344,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19001</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1338,10 +1355,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
@@ -1350,10 +1367,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="4">
+        <v>19001</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1361,10 +1378,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>47</v>
@@ -1373,10 +1390,10 @@
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19001</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1385,12 +1402,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="http://120.24.235.105:9010/sms-service-war-1.0/ws/smsFacade.ws?wsdl" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
